--- a/Sünnet Takı Listesi_tmp.xlsx
+++ b/Sünnet Takı Listesi_tmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Django_projects\SunnetTaki\sunnetproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\baris.ozen\Desktop\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B6FADC-5419-472F-B836-D8522483A9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF639A7-9B55-480E-8961-F53FB3E3A728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4FAE79D-1824-4B3C-BB6A-06FBA2062BBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4FAE79D-1824-4B3C-BB6A-06FBA2062BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Gelir (2)" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Gelir!$A$1:$E$260</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gelir (2)'!$A$1:$E$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gelir (2)'!$A$1:$H$260</definedName>
     <definedName name="Sabitler">Sabitler!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="700">
   <si>
     <t>Adı Soyadı</t>
   </si>
@@ -926,6 +926,1227 @@
   </si>
   <si>
     <t>Dilek Barış</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>AKA</t>
+  </si>
+  <si>
+    <t>Çağatay</t>
+  </si>
+  <si>
+    <t>EREN</t>
+  </si>
+  <si>
+    <t>KAYIN</t>
+  </si>
+  <si>
+    <t>Gürkan</t>
+  </si>
+  <si>
+    <t>DEMİR</t>
+  </si>
+  <si>
+    <t>AKÇALI</t>
+  </si>
+  <si>
+    <t>Serkan</t>
+  </si>
+  <si>
+    <t>ÇETİN</t>
+  </si>
+  <si>
+    <t>Varol</t>
+  </si>
+  <si>
+    <t>TÜRKOĞLU</t>
+  </si>
+  <si>
+    <t>Yasemin</t>
+  </si>
+  <si>
+    <t>ERDEM</t>
+  </si>
+  <si>
+    <t>Ufuk</t>
+  </si>
+  <si>
+    <t>ŞEN</t>
+  </si>
+  <si>
+    <t>Serdar</t>
+  </si>
+  <si>
+    <t>İsmail</t>
+  </si>
+  <si>
+    <t>BİRİM</t>
+  </si>
+  <si>
+    <t>Banu</t>
+  </si>
+  <si>
+    <t>Pedavralı</t>
+  </si>
+  <si>
+    <t>Emine</t>
+  </si>
+  <si>
+    <t>ÖZEN</t>
+  </si>
+  <si>
+    <t>KASAP</t>
+  </si>
+  <si>
+    <t>Muzaffer</t>
+  </si>
+  <si>
+    <t>DERMENCİ</t>
+  </si>
+  <si>
+    <t>Halit</t>
+  </si>
+  <si>
+    <t>GÜRLER</t>
+  </si>
+  <si>
+    <t>Kadir</t>
+  </si>
+  <si>
+    <t>AKBULUT</t>
+  </si>
+  <si>
+    <t>Şahin</t>
+  </si>
+  <si>
+    <t>Gülsüm</t>
+  </si>
+  <si>
+    <t>YILDIZ</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Özcan</t>
+  </si>
+  <si>
+    <t>Zeynep</t>
+  </si>
+  <si>
+    <t>SÖZEN</t>
+  </si>
+  <si>
+    <t>DAYI</t>
+  </si>
+  <si>
+    <t>ASLAN</t>
+  </si>
+  <si>
+    <t>Mesut</t>
+  </si>
+  <si>
+    <t>Özüak</t>
+  </si>
+  <si>
+    <t>İslam</t>
+  </si>
+  <si>
+    <t>Hüseyin</t>
+  </si>
+  <si>
+    <t>SEYMAN</t>
+  </si>
+  <si>
+    <t>Kemal</t>
+  </si>
+  <si>
+    <t>KALYONCU</t>
+  </si>
+  <si>
+    <t>İbrahim</t>
+  </si>
+  <si>
+    <t>BOLSU</t>
+  </si>
+  <si>
+    <t>Nilgün</t>
+  </si>
+  <si>
+    <t>ÖRER</t>
+  </si>
+  <si>
+    <t>PALA</t>
+  </si>
+  <si>
+    <t>Özkan</t>
+  </si>
+  <si>
+    <t>Gülten</t>
+  </si>
+  <si>
+    <t>GÜRCAN</t>
+  </si>
+  <si>
+    <t>Derya</t>
+  </si>
+  <si>
+    <t>Kortal</t>
+  </si>
+  <si>
+    <t>Berna</t>
+  </si>
+  <si>
+    <t>ATİK</t>
+  </si>
+  <si>
+    <t>Asiye</t>
+  </si>
+  <si>
+    <t>Şeref</t>
+  </si>
+  <si>
+    <t>ERBAY</t>
+  </si>
+  <si>
+    <t>Havva</t>
+  </si>
+  <si>
+    <t>Eser</t>
+  </si>
+  <si>
+    <t>DOĞAN</t>
+  </si>
+  <si>
+    <t>MESCİ</t>
+  </si>
+  <si>
+    <t>Durna</t>
+  </si>
+  <si>
+    <t>Canan</t>
+  </si>
+  <si>
+    <t>Korkmaz</t>
+  </si>
+  <si>
+    <t>Bahadır</t>
+  </si>
+  <si>
+    <t>DAĞDELEN</t>
+  </si>
+  <si>
+    <t>Alper</t>
+  </si>
+  <si>
+    <t>TURHAN</t>
+  </si>
+  <si>
+    <t>KARAYEL</t>
+  </si>
+  <si>
+    <t>GÖKKURT</t>
+  </si>
+  <si>
+    <t>Hüsamettin</t>
+  </si>
+  <si>
+    <t>TANDOĞAN</t>
+  </si>
+  <si>
+    <t>Esat</t>
+  </si>
+  <si>
+    <t>KIRAL</t>
+  </si>
+  <si>
+    <t>Birol</t>
+  </si>
+  <si>
+    <t>DEMİRÖZER</t>
+  </si>
+  <si>
+    <t>Asuman</t>
+  </si>
+  <si>
+    <t>ERDOĞAN</t>
+  </si>
+  <si>
+    <t>ATEŞ</t>
+  </si>
+  <si>
+    <t>Saliha</t>
+  </si>
+  <si>
+    <t>Ayşe</t>
+  </si>
+  <si>
+    <t>AVCI</t>
+  </si>
+  <si>
+    <t>Aysel</t>
+  </si>
+  <si>
+    <t>Hakkı</t>
+  </si>
+  <si>
+    <t>BOSTANCIOĞLU</t>
+  </si>
+  <si>
+    <t>Metin</t>
+  </si>
+  <si>
+    <t>Cemile</t>
+  </si>
+  <si>
+    <t>DAYISI)</t>
+  </si>
+  <si>
+    <t>YILDIRIM</t>
+  </si>
+  <si>
+    <t>SOYYILMAZ</t>
+  </si>
+  <si>
+    <t>D:10)</t>
+  </si>
+  <si>
+    <t>Figen</t>
+  </si>
+  <si>
+    <t>IŞIKTAŞ</t>
+  </si>
+  <si>
+    <t>GÜNDOĞAN</t>
+  </si>
+  <si>
+    <t>Zehra</t>
+  </si>
+  <si>
+    <t>BALTICIOĞLU</t>
+  </si>
+  <si>
+    <t>PARMAKSIZ</t>
+  </si>
+  <si>
+    <t>DemirÖZER</t>
+  </si>
+  <si>
+    <t>ÇİMEN</t>
+  </si>
+  <si>
+    <t>Gülcan</t>
+  </si>
+  <si>
+    <t>Sedef</t>
+  </si>
+  <si>
+    <t>ÇALKINKAYA</t>
+  </si>
+  <si>
+    <t>Cesur</t>
+  </si>
+  <si>
+    <t>DİNÇ</t>
+  </si>
+  <si>
+    <t>MERT</t>
+  </si>
+  <si>
+    <t>KAYA</t>
+  </si>
+  <si>
+    <t>Meriç</t>
+  </si>
+  <si>
+    <t>SÜRER</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>ÖZÜAK</t>
+  </si>
+  <si>
+    <t>Mülkü</t>
+  </si>
+  <si>
+    <t>AKGÖZ</t>
+  </si>
+  <si>
+    <t>DAĞLI</t>
+  </si>
+  <si>
+    <t>Birsen</t>
+  </si>
+  <si>
+    <t>GÜNGÖR</t>
+  </si>
+  <si>
+    <t>Yusuf</t>
+  </si>
+  <si>
+    <t>ÇELİK</t>
+  </si>
+  <si>
+    <t>Cafer</t>
+  </si>
+  <si>
+    <t>KÜÇÜKOĞLU</t>
+  </si>
+  <si>
+    <t>Kardeş)</t>
+  </si>
+  <si>
+    <t>Samet</t>
+  </si>
+  <si>
+    <t>ARSLAN</t>
+  </si>
+  <si>
+    <t>Münevver</t>
+  </si>
+  <si>
+    <t>Hala</t>
+  </si>
+  <si>
+    <t>Vedat</t>
+  </si>
+  <si>
+    <t>KAMALIOĞLU</t>
+  </si>
+  <si>
+    <t>Sevdiye</t>
+  </si>
+  <si>
+    <t>DİKEN</t>
+  </si>
+  <si>
+    <t>Osman</t>
+  </si>
+  <si>
+    <t>Cihan</t>
+  </si>
+  <si>
+    <t>KARA</t>
+  </si>
+  <si>
+    <t>Sezgin</t>
+  </si>
+  <si>
+    <t>AYDIN</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>ODABAŞI</t>
+  </si>
+  <si>
+    <t>Tülin</t>
+  </si>
+  <si>
+    <t>KAPLAN</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>GÖNENÇ</t>
+  </si>
+  <si>
+    <t>Yenge)</t>
+  </si>
+  <si>
+    <t>Ramazan</t>
+  </si>
+  <si>
+    <t>GÜL</t>
+  </si>
+  <si>
+    <t>TUNÇ</t>
+  </si>
+  <si>
+    <t>Hilal</t>
+  </si>
+  <si>
+    <t>ÇAKIR</t>
+  </si>
+  <si>
+    <t>ONAR</t>
+  </si>
+  <si>
+    <t>TÜREGÜN</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>ÖZKAHRAMAN</t>
+  </si>
+  <si>
+    <t>GÜLTEKİN</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>SOSYAL</t>
+  </si>
+  <si>
+    <t>BİLGİLER</t>
+  </si>
+  <si>
+    <t>ÖĞRETMENİ)</t>
+  </si>
+  <si>
+    <t>Saniye</t>
+  </si>
+  <si>
+    <t>Hatice</t>
+  </si>
+  <si>
+    <t>ÖZLÜ</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>Nagihan</t>
+  </si>
+  <si>
+    <t>MALAKÇI</t>
+  </si>
+  <si>
+    <t>Nurgül</t>
+  </si>
+  <si>
+    <t>TINGIROĞLU</t>
+  </si>
+  <si>
+    <t>Cemil</t>
+  </si>
+  <si>
+    <t>AYGÜN</t>
+  </si>
+  <si>
+    <t>Necati</t>
+  </si>
+  <si>
+    <t>ÇAKIROĞLU</t>
+  </si>
+  <si>
+    <t>AKMEŞE</t>
+  </si>
+  <si>
+    <t>Onur</t>
+  </si>
+  <si>
+    <t>KARABACAK</t>
+  </si>
+  <si>
+    <t>Dinkçi</t>
+  </si>
+  <si>
+    <t>Ertan</t>
+  </si>
+  <si>
+    <t>BARUT</t>
+  </si>
+  <si>
+    <t>Bilgin</t>
+  </si>
+  <si>
+    <t>EZMEOĞLU</t>
+  </si>
+  <si>
+    <t>KINALI</t>
+  </si>
+  <si>
+    <t>ÇELİKKAYA</t>
+  </si>
+  <si>
+    <t>Aynur</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>Erkan</t>
+  </si>
+  <si>
+    <t>Hüseyin)</t>
+  </si>
+  <si>
+    <t>Erhan</t>
+  </si>
+  <si>
+    <t>GÜLER</t>
+  </si>
+  <si>
+    <t>TUNCEL</t>
+  </si>
+  <si>
+    <t>BAKAR</t>
+  </si>
+  <si>
+    <t>SAKA</t>
+  </si>
+  <si>
+    <t>BOZDA</t>
+  </si>
+  <si>
+    <t>TUZLUKLU</t>
+  </si>
+  <si>
+    <t>Ailesi</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>ALEMİN</t>
+  </si>
+  <si>
+    <t>KILIÇ</t>
+  </si>
+  <si>
+    <t>ÇAVUŞ</t>
+  </si>
+  <si>
+    <t>DEVECİ</t>
+  </si>
+  <si>
+    <t>Cevriye</t>
+  </si>
+  <si>
+    <t>UZER</t>
+  </si>
+  <si>
+    <t>Kudret</t>
+  </si>
+  <si>
+    <t>TİRE</t>
+  </si>
+  <si>
+    <t>Fatoş</t>
+  </si>
+  <si>
+    <t>ERSOY</t>
+  </si>
+  <si>
+    <t>EFE</t>
+  </si>
+  <si>
+    <t>Nilifer</t>
+  </si>
+  <si>
+    <t>Hayrettin</t>
+  </si>
+  <si>
+    <t>Soner</t>
+  </si>
+  <si>
+    <t>ÖZ</t>
+  </si>
+  <si>
+    <t>Savaş</t>
+  </si>
+  <si>
+    <t>KOÇ</t>
+  </si>
+  <si>
+    <t>Orhan</t>
+  </si>
+  <si>
+    <t>UYAR</t>
+  </si>
+  <si>
+    <t>Erol</t>
+  </si>
+  <si>
+    <t>KORKUTAN</t>
+  </si>
+  <si>
+    <t>Alattin</t>
+  </si>
+  <si>
+    <t>Gönül</t>
+  </si>
+  <si>
+    <t>KABAKÇIOĞLU</t>
+  </si>
+  <si>
+    <t>Azize</t>
+  </si>
+  <si>
+    <t>ÇALIŞKAN</t>
+  </si>
+  <si>
+    <t>Sevim</t>
+  </si>
+  <si>
+    <t>Erdal</t>
+  </si>
+  <si>
+    <t>UÇAR</t>
+  </si>
+  <si>
+    <t>Selime</t>
+  </si>
+  <si>
+    <t>AKBAŞ</t>
+  </si>
+  <si>
+    <t>BAŞFİDAN)</t>
+  </si>
+  <si>
+    <t>Zekariye</t>
+  </si>
+  <si>
+    <t>ZEREN</t>
+  </si>
+  <si>
+    <t>Arzu</t>
+  </si>
+  <si>
+    <t>KİLLİKOĞLU</t>
+  </si>
+  <si>
+    <t>Hediye</t>
+  </si>
+  <si>
+    <t>YENGE</t>
+  </si>
+  <si>
+    <t>KARADUMAN</t>
+  </si>
+  <si>
+    <t>Niyazi</t>
+  </si>
+  <si>
+    <t>İsimzsiz</t>
+  </si>
+  <si>
+    <t>GÜLÜNCE</t>
+  </si>
+  <si>
+    <t>BABASI)</t>
+  </si>
+  <si>
+    <t>Ünal</t>
+  </si>
+  <si>
+    <t>Recep</t>
+  </si>
+  <si>
+    <t>Aydın</t>
+  </si>
+  <si>
+    <t>AKINCI</t>
+  </si>
+  <si>
+    <t>DENİZLİ</t>
+  </si>
+  <si>
+    <t>AYAZ</t>
+  </si>
+  <si>
+    <t>Özer</t>
+  </si>
+  <si>
+    <t>UYGUN</t>
+  </si>
+  <si>
+    <t>ÖZÇELİK</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Bircan</t>
+  </si>
+  <si>
+    <t>Nazım</t>
+  </si>
+  <si>
+    <t>AKDUMAN</t>
+  </si>
+  <si>
+    <t>BELLİ</t>
+  </si>
+  <si>
+    <t>Durmuş</t>
+  </si>
+  <si>
+    <t>Çağla</t>
+  </si>
+  <si>
+    <t>FİKİR</t>
+  </si>
+  <si>
+    <t>Hamide</t>
+  </si>
+  <si>
+    <t>YILMAZ</t>
+  </si>
+  <si>
+    <t>Ertuğrul</t>
+  </si>
+  <si>
+    <t>ÇIRAK</t>
+  </si>
+  <si>
+    <t>Volkan</t>
+  </si>
+  <si>
+    <t>Gülümser</t>
+  </si>
+  <si>
+    <t>Gülay</t>
+  </si>
+  <si>
+    <t>Habibullah</t>
+  </si>
+  <si>
+    <t>Münir</t>
+  </si>
+  <si>
+    <t>KOZAKLI</t>
+  </si>
+  <si>
+    <t>AKKAYA</t>
+  </si>
+  <si>
+    <t>ŞENEL</t>
+  </si>
+  <si>
+    <t>Rahime</t>
+  </si>
+  <si>
+    <t>ÖZMEN</t>
+  </si>
+  <si>
+    <t>Veysel</t>
+  </si>
+  <si>
+    <t>Semih</t>
+  </si>
+  <si>
+    <t>ÇALIK</t>
+  </si>
+  <si>
+    <t>YARAR</t>
+  </si>
+  <si>
+    <t>Serhat</t>
+  </si>
+  <si>
+    <t>Yılmaz</t>
+  </si>
+  <si>
+    <t>SAĞLAM</t>
+  </si>
+  <si>
+    <t>AĞUSTOS</t>
+  </si>
+  <si>
+    <t>Gülnür</t>
+  </si>
+  <si>
+    <t>Remzi</t>
+  </si>
+  <si>
+    <t>BİNCAN</t>
+  </si>
+  <si>
+    <t>KURT</t>
+  </si>
+  <si>
+    <t>Belgin</t>
+  </si>
+  <si>
+    <t>Uğur</t>
+  </si>
+  <si>
+    <t>Raziye</t>
+  </si>
+  <si>
+    <t>Nilgün-Erkan</t>
+  </si>
+  <si>
+    <t>Tüfekçi</t>
+  </si>
+  <si>
+    <t>Şule</t>
+  </si>
+  <si>
+    <t>Zeliha</t>
+  </si>
+  <si>
+    <t>SALBAŞ</t>
+  </si>
+  <si>
+    <t>Nihal</t>
+  </si>
+  <si>
+    <t>YALÇIN</t>
+  </si>
+  <si>
+    <t>Sadullah</t>
+  </si>
+  <si>
+    <t>TÜRKAN</t>
+  </si>
+  <si>
+    <t>ŞAHİN</t>
+  </si>
+  <si>
+    <t>Fatih Sibel</t>
+  </si>
+  <si>
+    <t>Bengül Ercan</t>
+  </si>
+  <si>
+    <t>Hülya Cengiz</t>
+  </si>
+  <si>
+    <t>Serkan Fatma</t>
+  </si>
+  <si>
+    <t>Murat Leyla</t>
+  </si>
+  <si>
+    <t>Gülsüm Özlem</t>
+  </si>
+  <si>
+    <t>Mehmet Emine</t>
+  </si>
+  <si>
+    <t>Serkan Gözde</t>
+  </si>
+  <si>
+    <t>Zerrin Mehmet</t>
+  </si>
+  <si>
+    <t>Adı</t>
+  </si>
+  <si>
+    <t>Umut Didem</t>
+  </si>
+  <si>
+    <t>Öznur İbrahim</t>
+  </si>
+  <si>
+    <t>Mehmet Nilgün</t>
+  </si>
+  <si>
+    <t>Selami Buket</t>
+  </si>
+  <si>
+    <t>Okan Berna</t>
+  </si>
+  <si>
+    <t>Mert Havva</t>
+  </si>
+  <si>
+    <t>Derya Öztunç</t>
+  </si>
+  <si>
+    <t>Serap Gökhan</t>
+  </si>
+  <si>
+    <t>Çiğdem Yasin</t>
+  </si>
+  <si>
+    <t>Yasemin İslam</t>
+  </si>
+  <si>
+    <t>Duygu Zafer</t>
+  </si>
+  <si>
+    <t>Esra Nurullah</t>
+  </si>
+  <si>
+    <t>Cansu Selçuk</t>
+  </si>
+  <si>
+    <t>Elif PARMAKSIZ</t>
+  </si>
+  <si>
+    <t>Murat Kadriye</t>
+  </si>
+  <si>
+    <t>Meral Doğan</t>
+  </si>
+  <si>
+    <t>Hande Ender</t>
+  </si>
+  <si>
+    <t>Cafer Sibel</t>
+  </si>
+  <si>
+    <t>Esma Emin</t>
+  </si>
+  <si>
+    <t>Kader Zeynep</t>
+  </si>
+  <si>
+    <t>Sezgin Özge</t>
+  </si>
+  <si>
+    <t>Çiğdem Mustafa</t>
+  </si>
+  <si>
+    <t>Salih Zeki</t>
+  </si>
+  <si>
+    <t>Nuran Ramazan</t>
+  </si>
+  <si>
+    <t>Kübra Akın</t>
+  </si>
+  <si>
+    <t>Bedriye Kemal</t>
+  </si>
+  <si>
+    <t>Zafer Burak</t>
+  </si>
+  <si>
+    <t>Elif Zafer</t>
+  </si>
+  <si>
+    <t>Mümine Hasan</t>
+  </si>
+  <si>
+    <t>Hüseyin Yağmur</t>
+  </si>
+  <si>
+    <t>Binnur İbrahim</t>
+  </si>
+  <si>
+    <t>Harun TALHA</t>
+  </si>
+  <si>
+    <t>Melek Özgür</t>
+  </si>
+  <si>
+    <t>Yunus Emre</t>
+  </si>
+  <si>
+    <t>Ayşe Galip</t>
+  </si>
+  <si>
+    <t>Birten Mehmet</t>
+  </si>
+  <si>
+    <t>Emel Osman</t>
+  </si>
+  <si>
+    <t>Ersin Zekai</t>
+  </si>
+  <si>
+    <t>Faruk Büşra</t>
+  </si>
+  <si>
+    <t>Aleyna ÖZKAN</t>
+  </si>
+  <si>
+    <t>Metin Neslihan</t>
+  </si>
+  <si>
+    <t>Semra Yavuz</t>
+  </si>
+  <si>
+    <t>Gülcan BİRLİK</t>
+  </si>
+  <si>
+    <t>Hatice Mümin</t>
+  </si>
+  <si>
+    <t>Betül Ahmet</t>
+  </si>
+  <si>
+    <t>Kübra Gökhan</t>
+  </si>
+  <si>
+    <t>Ayten Murat</t>
+  </si>
+  <si>
+    <t>Nermin AHMET</t>
+  </si>
+  <si>
+    <t>Metin Hasibe</t>
+  </si>
+  <si>
+    <t>Canan Ramazan</t>
+  </si>
+  <si>
+    <t>Sakine</t>
+  </si>
+  <si>
+    <t>Emine Bülent</t>
+  </si>
+  <si>
+    <t>Esma TANER</t>
+  </si>
+  <si>
+    <t>Zafure Habib</t>
+  </si>
+  <si>
+    <t>Ali Sevcan</t>
+  </si>
+  <si>
+    <t>Dinçer ÇAKIR</t>
+  </si>
+  <si>
+    <t>Ahmet Feti</t>
+  </si>
+  <si>
+    <t>Soyadı</t>
+  </si>
+  <si>
+    <t>Esra)</t>
+  </si>
+  <si>
+    <t>Muratlar)</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>ARAS</t>
+  </si>
+  <si>
+    <t>Beyza Olcay</t>
+  </si>
+  <si>
+    <t>Süleymanlı</t>
+  </si>
+  <si>
+    <t>Nuh Fatma</t>
+  </si>
+  <si>
+    <t>TAŞ</t>
+  </si>
+  <si>
+    <t>Kumköy</t>
+  </si>
+  <si>
+    <t>B1-12 D:3</t>
+  </si>
+  <si>
+    <t>ACAR</t>
+  </si>
+  <si>
+    <t>Saliha YAHYA</t>
+  </si>
+  <si>
+    <t>YAHYA</t>
+  </si>
+  <si>
+    <t>Metin Cemile</t>
+  </si>
+  <si>
+    <t>SAĞIN</t>
+  </si>
+  <si>
+    <t>Gözdenin Dayısı</t>
+  </si>
+  <si>
+    <t>Zafer Büşra KARADUMAN</t>
+  </si>
+  <si>
+    <t>B1-12 D:10</t>
+  </si>
+  <si>
+    <t>Zafer Büşra</t>
+  </si>
+  <si>
+    <t>Esma Kardeş</t>
+  </si>
+  <si>
+    <t>Semra İbrahim</t>
+  </si>
+  <si>
+    <t>AKGÜN</t>
+  </si>
+  <si>
+    <t>Asumanın Babası</t>
+  </si>
+  <si>
+    <t>Emine Yenge</t>
+  </si>
+  <si>
+    <t>AĞIR</t>
+  </si>
+  <si>
+    <t>Rabia Ahmet</t>
+  </si>
+  <si>
+    <t>Şeref Ayfer</t>
+  </si>
+  <si>
+    <t>ATAY</t>
+  </si>
+  <si>
+    <t>Mehmet KAZIMIN SOSYAL BİLGİLER ÖĞRETMENİ</t>
+  </si>
+  <si>
+    <t>B1-12 D:15</t>
+  </si>
+  <si>
+    <t>ALTUNCU</t>
+  </si>
+  <si>
+    <t>YAMAN</t>
+  </si>
+  <si>
+    <t>YÖRÜK</t>
+  </si>
+  <si>
+    <t>Dayı Hüseyin</t>
+  </si>
+  <si>
+    <t>Semiha Erkan</t>
+  </si>
+  <si>
+    <t>Gökhan Güner</t>
+  </si>
+  <si>
+    <t>Hümeyra BAŞFİDAN</t>
+  </si>
+  <si>
+    <t>ÖZKAN</t>
+  </si>
+  <si>
+    <t>Alfa Dekerasyon</t>
+  </si>
+  <si>
+    <t>Muratlar Hoca</t>
+  </si>
+  <si>
+    <t>Sibel AKANIN Babası</t>
+  </si>
+  <si>
+    <t>ERGÜR</t>
+  </si>
+  <si>
+    <t>YÖRÜKOĞULLARI</t>
+  </si>
+  <si>
+    <t>ORTA</t>
+  </si>
+  <si>
+    <t>Sena Hakan</t>
+  </si>
+  <si>
+    <t>HACIOĞLU</t>
+  </si>
+  <si>
+    <t>orkide</t>
   </si>
 </sst>
 </file>
@@ -3530,39 +4751,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24230E0A-EA32-4025-A919-3AF8737C22E3}">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:O260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3570,16 +4804,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="D2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3587,16 +4827,22 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3604,16 +4850,25 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>657</v>
+      </c>
+      <c r="D4" t="s">
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3621,16 +4876,22 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3638,16 +4899,22 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3655,16 +4922,22 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3672,16 +4945,22 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3689,16 +4968,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>305</v>
+      </c>
+      <c r="D9" t="s">
+        <v>395</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3706,16 +4994,22 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3723,16 +5017,22 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="D11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3740,16 +5040,22 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3757,16 +5063,22 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="D13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3774,16 +5086,22 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3791,16 +5109,22 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="D15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3808,16 +5132,22 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="D16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3825,16 +5155,22 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="D17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3842,16 +5178,22 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3859,16 +5201,22 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="D19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3876,16 +5224,22 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="D20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3893,16 +5247,22 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="D21" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3910,16 +5270,22 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3927,16 +5293,22 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3944,16 +5316,22 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="D24" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3961,16 +5339,22 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="D25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3978,16 +5362,22 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D26" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3995,16 +5385,22 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4012,16 +5408,22 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+      <c r="D28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4029,16 +5431,22 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="D29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4046,16 +5454,22 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="D30" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4063,16 +5477,22 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="D31" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4080,16 +5500,22 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="D32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4097,16 +5523,22 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="D33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4114,16 +5546,22 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D34" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4131,16 +5569,22 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="D35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4148,16 +5592,22 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="D36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4165,16 +5615,22 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="D37" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4182,16 +5638,22 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="D38" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4199,16 +5661,22 @@
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="D39" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4216,16 +5684,22 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="D40" t="s">
+        <v>348</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4233,16 +5707,22 @@
         <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="D41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4250,16 +5730,22 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>350</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4267,16 +5753,25 @@
         <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>351</v>
+      </c>
+      <c r="D43" t="s">
+        <v>660</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4284,16 +5779,22 @@
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D44" t="s">
+        <v>353</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4301,16 +5802,22 @@
         <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="D45" t="s">
+        <v>355</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4318,16 +5825,22 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="D46" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4335,16 +5848,22 @@
         <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="D47" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4352,16 +5871,22 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
         <v>0.5</v>
       </c>
-      <c r="E48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4369,16 +5894,22 @@
         <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49">
+        <v>603</v>
+      </c>
+      <c r="D49" t="s">
+        <v>358</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
         <v>0.5</v>
       </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4386,16 +5917,25 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50">
+        <v>324</v>
+      </c>
+      <c r="D50" t="s">
+        <v>663</v>
+      </c>
+      <c r="E50" t="s">
+        <v>661</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
         <v>0.5</v>
       </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4403,16 +5943,22 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51">
+        <v>359</v>
+      </c>
+      <c r="D51" t="s">
+        <v>360</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
         <v>0.5</v>
       </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4420,16 +5966,22 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52">
+        <v>361</v>
+      </c>
+      <c r="D52" t="s">
+        <v>362</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
         <v>0.5</v>
       </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4437,16 +5989,22 @@
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53">
+        <v>363</v>
+      </c>
+      <c r="D53" t="s">
+        <v>364</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
         <v>0.5</v>
       </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4454,16 +6012,22 @@
         <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54">
+        <v>604</v>
+      </c>
+      <c r="D54" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
         <v>0.5</v>
       </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4471,16 +6035,22 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55">
+        <v>605</v>
+      </c>
+      <c r="D55" t="s">
+        <v>365</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
         <v>0.5</v>
       </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4488,16 +6058,22 @@
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56">
+        <v>606</v>
+      </c>
+      <c r="D56" t="s">
+        <v>366</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
         <v>0.5</v>
       </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4505,16 +6081,22 @@
         <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57">
+        <v>367</v>
+      </c>
+      <c r="D57" t="s">
+        <v>368</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
         <v>0.5</v>
       </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4522,16 +6104,22 @@
         <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58">
+        <v>369</v>
+      </c>
+      <c r="D58" t="s">
+        <v>370</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
         <v>0.5</v>
       </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4539,16 +6127,22 @@
         <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59">
+        <v>371</v>
+      </c>
+      <c r="D59" t="s">
+        <v>372</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
         <v>0.5</v>
       </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4556,16 +6150,22 @@
         <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60">
+        <v>373</v>
+      </c>
+      <c r="D60" t="s">
+        <v>374</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
         <v>0.5</v>
       </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4573,33 +6173,48 @@
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>375</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
         <v>0.25</v>
       </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>664</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62">
+        <v>376</v>
+      </c>
+      <c r="D62" t="s">
+        <v>665</v>
+      </c>
+      <c r="E62" t="s">
+        <v>662</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
         <v>10</v>
       </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4607,16 +6222,22 @@
         <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63">
+        <v>377</v>
+      </c>
+      <c r="D63" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
         <v>10</v>
       </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4624,16 +6245,22 @@
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64">
+        <v>379</v>
+      </c>
+      <c r="D64" t="s">
+        <v>322</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
         <v>10</v>
       </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4641,16 +6268,22 @@
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65">
+        <v>380</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
         <v>10</v>
       </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4658,16 +6291,28 @@
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66">
+        <v>666</v>
+      </c>
+      <c r="D66" t="s">
+        <v>667</v>
+      </c>
+      <c r="E66" t="s">
+        <v>668</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
         <v>10</v>
       </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4675,16 +6320,22 @@
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67">
+        <v>607</v>
+      </c>
+      <c r="D67" t="s">
+        <v>385</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
         <v>10</v>
       </c>
-      <c r="E67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4692,33 +6343,51 @@
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68">
+        <v>345</v>
+      </c>
+      <c r="D68" t="s">
+        <v>386</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
         <v>10</v>
       </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>669</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69">
+        <v>671</v>
+      </c>
+      <c r="D69" t="s">
+        <v>524</v>
+      </c>
+      <c r="E69" t="s">
+        <v>670</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
         <v>10</v>
       </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4726,16 +6395,22 @@
         <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70">
+        <v>388</v>
+      </c>
+      <c r="D70" t="s">
+        <v>389</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
         <v>10</v>
       </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4743,16 +6418,22 @@
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71">
+        <v>293</v>
+      </c>
+      <c r="D71" t="s">
+        <v>390</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
         <v>10</v>
       </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4760,16 +6441,22 @@
         <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72">
+        <v>391</v>
+      </c>
+      <c r="D72" t="s">
+        <v>392</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
         <v>10</v>
       </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4777,16 +6464,22 @@
         <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73">
+        <v>608</v>
+      </c>
+      <c r="D73" t="s">
+        <v>394</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
         <v>20</v>
       </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4794,16 +6487,25 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74">
+        <v>326</v>
+      </c>
+      <c r="D74" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" t="s">
+        <v>658</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
         <v>10</v>
       </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4811,16 +6513,22 @@
         <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75">
+        <v>396</v>
+      </c>
+      <c r="D75" t="s">
+        <v>372</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
         <v>100</v>
       </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4828,16 +6536,22 @@
         <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
         <v>10</v>
       </c>
-      <c r="E76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4845,16 +6559,22 @@
         <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77">
+        <v>397</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
         <v>5</v>
       </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4862,16 +6582,22 @@
         <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
+        <v>399</v>
+      </c>
+      <c r="D78" t="s">
+        <v>400</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
         <v>10</v>
       </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4879,16 +6605,22 @@
         <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79">
+        <v>609</v>
+      </c>
+      <c r="D79" t="s">
+        <v>401</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
         <v>10</v>
       </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4896,16 +6628,22 @@
         <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80">
+        <v>610</v>
+      </c>
+      <c r="D80" t="s">
+        <v>402</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
         <v>20</v>
       </c>
-      <c r="E80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4913,16 +6651,22 @@
         <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81">
+        <v>403</v>
+      </c>
+      <c r="D81" t="s">
+        <v>404</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
         <v>20</v>
       </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4930,16 +6674,22 @@
         <v>97</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82">
+        <v>405</v>
+      </c>
+      <c r="D82" t="s">
+        <v>406</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
         <v>20</v>
       </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4947,16 +6697,22 @@
         <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83">
+        <v>407</v>
+      </c>
+      <c r="D83" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
         <v>20</v>
       </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4964,16 +6720,22 @@
         <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>409</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
         <v>20</v>
       </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4981,16 +6743,22 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85">
+        <v>410</v>
+      </c>
+      <c r="D85" t="s">
+        <v>411</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
         <v>20</v>
       </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4998,16 +6766,22 @@
         <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86">
+        <v>412</v>
+      </c>
+      <c r="D86" t="s">
+        <v>413</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
         <v>20</v>
       </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5015,16 +6789,22 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87">
+        <v>610</v>
+      </c>
+      <c r="D87" t="s">
+        <v>402</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
         <v>20</v>
       </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5032,16 +6812,22 @@
         <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88">
+        <v>611</v>
+      </c>
+      <c r="D88" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
         <v>10</v>
       </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5049,16 +6835,22 @@
         <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89">
+        <v>612</v>
+      </c>
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
         <v>10</v>
       </c>
-      <c r="E89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5066,16 +6858,22 @@
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90">
+        <v>611</v>
+      </c>
+      <c r="D90" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
         <v>10</v>
       </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5083,16 +6881,28 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91">
+        <v>673</v>
+      </c>
+      <c r="D91" t="s">
+        <v>674</v>
+      </c>
+      <c r="E91" t="s">
+        <v>672</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
         <v>10</v>
       </c>
-      <c r="E91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5100,16 +6910,22 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92">
+        <v>417</v>
+      </c>
+      <c r="D92" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
         <v>10</v>
       </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5117,16 +6933,22 @@
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93">
+        <v>419</v>
+      </c>
+      <c r="D93" t="s">
+        <v>420</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
         <v>15</v>
       </c>
-      <c r="E93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5134,16 +6956,22 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94">
+        <v>421</v>
+      </c>
+      <c r="D94" t="s">
+        <v>346</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
         <v>10</v>
       </c>
-      <c r="E94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5151,16 +6979,22 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95">
+        <v>613</v>
+      </c>
+      <c r="D95" t="s">
+        <v>422</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
         <v>10</v>
       </c>
-      <c r="E95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5168,16 +7002,22 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96">
+        <v>423</v>
+      </c>
+      <c r="D96" t="s">
+        <v>424</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
         <v>10</v>
       </c>
-      <c r="E96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5185,16 +7025,22 @@
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97">
+        <v>425</v>
+      </c>
+      <c r="D97" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
         <v>10</v>
       </c>
-      <c r="E97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5202,16 +7048,22 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98">
+        <v>614</v>
+      </c>
+      <c r="D98" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
         <v>10</v>
       </c>
-      <c r="E98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5219,16 +7071,22 @@
         <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99">
+        <v>426</v>
+      </c>
+      <c r="D99" t="s">
+        <v>427</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
         <v>10</v>
       </c>
-      <c r="E99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5236,16 +7094,22 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100">
+        <v>615</v>
+      </c>
+      <c r="D100" t="s">
+        <v>429</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
         <v>10</v>
       </c>
-      <c r="E100" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5253,16 +7117,22 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101">
+        <v>616</v>
+      </c>
+      <c r="D101" t="s">
+        <v>431</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
         <v>10</v>
       </c>
-      <c r="E101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5270,16 +7140,22 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102">
+        <v>432</v>
+      </c>
+      <c r="D102" t="s">
+        <v>433</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
         <v>10</v>
       </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5287,16 +7163,22 @@
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103">
+        <v>617</v>
+      </c>
+      <c r="D103" t="s">
+        <v>429</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
         <v>10</v>
       </c>
-      <c r="E103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5304,16 +7186,22 @@
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104">
+        <v>434</v>
+      </c>
+      <c r="D104" t="s">
+        <v>435</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
         <v>10</v>
       </c>
-      <c r="E104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5321,16 +7209,25 @@
         <v>259</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105">
+        <v>335</v>
+      </c>
+      <c r="D105" t="s">
+        <v>677</v>
+      </c>
+      <c r="E105" t="s">
+        <v>675</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
         <v>10</v>
       </c>
-      <c r="E105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5338,16 +7235,28 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106">
+        <v>678</v>
+      </c>
+      <c r="D106" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" t="s">
+        <v>676</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
         <v>10</v>
       </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5355,16 +7264,22 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107">
+        <v>618</v>
+      </c>
+      <c r="D107" t="s">
+        <v>438</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
         <v>10</v>
       </c>
-      <c r="E107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5372,16 +7287,22 @@
         <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108">
+        <v>619</v>
+      </c>
+      <c r="D108" t="s">
+        <v>439</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
         <v>10</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5389,16 +7310,22 @@
         <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109">
+        <v>618</v>
+      </c>
+      <c r="D109" t="s">
+        <v>438</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
         <v>10</v>
       </c>
-      <c r="E109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5406,16 +7333,22 @@
         <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
         <v>10</v>
       </c>
-      <c r="E110" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5423,16 +7356,22 @@
         <v>122</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111">
+        <v>440</v>
+      </c>
+      <c r="D111" t="s">
+        <v>441</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
         <v>10</v>
       </c>
-      <c r="E111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5440,16 +7379,22 @@
         <v>123</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112">
+        <v>620</v>
+      </c>
+      <c r="D112" t="s">
+        <v>442</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
         <v>10</v>
       </c>
-      <c r="E112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5457,16 +7402,22 @@
         <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113">
+        <v>621</v>
+      </c>
+      <c r="D113" t="s">
+        <v>443</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
         <v>10</v>
       </c>
-      <c r="E113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5474,16 +7425,22 @@
         <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
         <v>10</v>
       </c>
-      <c r="E114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5491,16 +7448,22 @@
         <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115">
+        <v>622</v>
+      </c>
+      <c r="D115" t="s">
+        <v>441</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
         <v>10</v>
       </c>
-      <c r="E115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5508,16 +7471,22 @@
         <v>127</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116">
+        <v>623</v>
+      </c>
+      <c r="D116" t="s">
+        <v>445</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
         <v>10</v>
       </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5525,16 +7494,22 @@
         <v>128</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>128</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
         <v>10</v>
       </c>
-      <c r="E117" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5542,16 +7517,25 @@
         <v>129</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118">
+        <v>679</v>
+      </c>
+      <c r="D118" t="s">
+        <v>680</v>
+      </c>
+      <c r="E118" t="s">
+        <v>658</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
         <v>10</v>
       </c>
-      <c r="E118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5559,16 +7543,22 @@
         <v>130</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119">
+        <v>624</v>
+      </c>
+      <c r="D119" t="s">
+        <v>446</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
         <v>10</v>
       </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5576,16 +7566,22 @@
         <v>131</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120">
+        <v>354</v>
+      </c>
+      <c r="D120" t="s">
+        <v>413</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
         <v>10</v>
       </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5593,16 +7589,22 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121">
+        <v>434</v>
+      </c>
+      <c r="D121" t="s">
+        <v>435</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
         <v>10</v>
       </c>
-      <c r="E121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5610,16 +7612,22 @@
         <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122">
+        <v>421</v>
+      </c>
+      <c r="D122" t="s">
+        <v>346</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
         <v>10</v>
       </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5627,16 +7635,34 @@
         <v>258</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123">
+        <v>447</v>
+      </c>
+      <c r="D123" t="s">
+        <v>683</v>
+      </c>
+      <c r="E123" t="s">
+        <v>681</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
         <v>10</v>
       </c>
-      <c r="E123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="M123" t="s">
+        <v>448</v>
+      </c>
+      <c r="N123" t="s">
+        <v>449</v>
+      </c>
+      <c r="O123" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5644,16 +7670,22 @@
         <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124">
+        <v>301</v>
+      </c>
+      <c r="D124" t="s">
+        <v>299</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
         <v>10</v>
       </c>
-      <c r="E124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5661,16 +7693,25 @@
         <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125">
+        <v>451</v>
+      </c>
+      <c r="D125" t="s">
+        <v>684</v>
+      </c>
+      <c r="E125" t="s">
+        <v>682</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
         <v>10</v>
       </c>
-      <c r="E125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5678,16 +7719,22 @@
         <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126">
+        <v>452</v>
+      </c>
+      <c r="D126" t="s">
+        <v>453</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
         <v>10</v>
       </c>
-      <c r="E126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5695,16 +7742,22 @@
         <v>135</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127">
+        <v>434</v>
+      </c>
+      <c r="D127" t="s">
+        <v>454</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
         <v>10</v>
       </c>
-      <c r="E127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5712,16 +7765,22 @@
         <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128">
+        <v>455</v>
+      </c>
+      <c r="D128" t="s">
+        <v>456</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
         <v>10</v>
       </c>
-      <c r="E128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5729,16 +7788,22 @@
         <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129">
+        <v>457</v>
+      </c>
+      <c r="D129" t="s">
+        <v>458</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
         <v>10</v>
       </c>
-      <c r="E129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5746,16 +7811,22 @@
         <v>138</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130">
+        <v>459</v>
+      </c>
+      <c r="D130" t="s">
+        <v>460</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
         <v>10</v>
       </c>
-      <c r="E130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5763,16 +7834,22 @@
         <v>139</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131">
+        <v>461</v>
+      </c>
+      <c r="D131" t="s">
+        <v>462</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
         <v>10</v>
       </c>
-      <c r="E131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5780,16 +7857,22 @@
         <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132">
+        <v>625</v>
+      </c>
+      <c r="D132" t="s">
+        <v>429</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
         <v>10</v>
       </c>
-      <c r="E132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5797,16 +7880,22 @@
         <v>141</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133">
+        <v>354</v>
+      </c>
+      <c r="D133" t="s">
+        <v>463</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
         <v>10</v>
       </c>
-      <c r="E133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5814,16 +7903,22 @@
         <v>142</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134">
+        <v>464</v>
+      </c>
+      <c r="D134" t="s">
+        <v>465</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
         <v>10</v>
       </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5831,16 +7926,22 @@
         <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135">
+        <v>326</v>
+      </c>
+      <c r="D135" t="s">
+        <v>466</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
         <v>10</v>
       </c>
-      <c r="E135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5848,16 +7949,22 @@
         <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136">
+        <v>467</v>
+      </c>
+      <c r="D136" t="s">
+        <v>468</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
         <v>10</v>
       </c>
-      <c r="E136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5865,16 +7972,22 @@
         <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137">
+        <v>469</v>
+      </c>
+      <c r="D137" t="s">
+        <v>470</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
         <v>10</v>
       </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5882,16 +7995,22 @@
         <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138">
+        <v>626</v>
+      </c>
+      <c r="D138" t="s">
+        <v>471</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
         <v>10</v>
       </c>
-      <c r="E138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5899,16 +8018,22 @@
         <v>147</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139">
+        <v>627</v>
+      </c>
+      <c r="D139" t="s">
+        <v>472</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
         <v>10</v>
       </c>
-      <c r="E139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5916,16 +8041,22 @@
         <v>148</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140">
+        <v>473</v>
+      </c>
+      <c r="D140" t="s">
+        <v>474</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
         <v>10</v>
       </c>
-      <c r="E140" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5933,16 +8064,28 @@
         <v>260</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141">
+        <v>687</v>
+      </c>
+      <c r="D141" t="s">
+        <v>685</v>
+      </c>
+      <c r="E141" t="s">
+        <v>686</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
         <v>10</v>
       </c>
-      <c r="E141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="M141" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5950,16 +8093,22 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142">
+        <v>477</v>
+      </c>
+      <c r="D142" t="s">
+        <v>478</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
         <v>10</v>
       </c>
-      <c r="E142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5967,16 +8116,22 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143">
+        <v>467</v>
+      </c>
+      <c r="D143" t="s">
+        <v>479</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
         <v>10</v>
       </c>
-      <c r="E143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5984,16 +8139,22 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144">
+        <v>628</v>
+      </c>
+      <c r="D144" t="s">
+        <v>480</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
         <v>5</v>
       </c>
-      <c r="E144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6001,16 +8162,22 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145">
+        <v>629</v>
+      </c>
+      <c r="D145" t="s">
+        <v>481</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
         <v>5</v>
       </c>
-      <c r="E145" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6018,16 +8185,22 @@
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146">
+        <v>335</v>
+      </c>
+      <c r="D146" t="s">
+        <v>482</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
         <v>5</v>
       </c>
-      <c r="E146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6035,16 +8208,25 @@
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147">
+        <v>688</v>
+      </c>
+      <c r="D147" t="s">
+        <v>660</v>
+      </c>
+      <c r="E147" t="s">
+        <v>658</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
         <v>5</v>
       </c>
-      <c r="E147" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6052,16 +8234,22 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148">
+        <v>630</v>
+      </c>
+      <c r="D148" t="s">
+        <v>483</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
         <v>5</v>
       </c>
-      <c r="E148" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6069,16 +8257,25 @@
         <v>159</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149">
+        <v>383</v>
+      </c>
+      <c r="D149" t="s">
+        <v>484</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149">
         <v>100</v>
       </c>
-      <c r="E149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="M149" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6086,16 +8283,22 @@
         <v>160</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150">
+        <v>631</v>
+      </c>
+      <c r="D150" t="s">
+        <v>486</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150">
         <v>100</v>
       </c>
-      <c r="E150" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6103,16 +8306,22 @@
         <v>161</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151">
+        <v>417</v>
+      </c>
+      <c r="D151" t="s">
+        <v>487</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151">
         <v>100</v>
       </c>
-      <c r="E151" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6120,16 +8329,22 @@
         <v>162</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152">
+        <v>339</v>
+      </c>
+      <c r="D152" t="s">
+        <v>488</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152">
         <v>100</v>
       </c>
-      <c r="E152" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6137,16 +8352,22 @@
         <v>163</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153">
+        <v>382</v>
+      </c>
+      <c r="D153" t="s">
+        <v>489</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153">
         <v>100</v>
       </c>
-      <c r="E153" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6154,16 +8375,22 @@
         <v>164</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154">
+        <v>490</v>
+      </c>
+      <c r="D154" t="s">
+        <v>491</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154">
         <v>100</v>
       </c>
-      <c r="E154" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6171,16 +8398,22 @@
         <v>165</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155">
+        <v>492</v>
+      </c>
+      <c r="D155" t="s">
+        <v>493</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155">
         <v>40</v>
       </c>
-      <c r="E155" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6188,16 +8421,22 @@
         <v>166</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156">
+        <v>494</v>
+      </c>
+      <c r="D156" t="s">
+        <v>495</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156">
         <v>50</v>
       </c>
-      <c r="E156" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -6205,16 +8444,22 @@
         <v>167</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>167</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157">
         <v>50</v>
       </c>
-      <c r="E157" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -6222,16 +8467,22 @@
         <v>168</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158">
+        <v>444</v>
+      </c>
+      <c r="D158" t="s">
+        <v>496</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158">
         <v>50</v>
       </c>
-      <c r="E158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -6239,16 +8490,25 @@
         <v>169</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159">
+        <v>497</v>
+      </c>
+      <c r="D159" t="s">
+        <v>496</v>
+      </c>
+      <c r="E159" t="s">
+        <v>661</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159">
         <v>100</v>
       </c>
-      <c r="E159" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6256,16 +8516,22 @@
         <v>170</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160">
+        <v>498</v>
+      </c>
+      <c r="D160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="G160">
         <v>100</v>
       </c>
-      <c r="E160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6273,16 +8539,22 @@
         <v>171</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161">
+        <v>499</v>
+      </c>
+      <c r="D161" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
+      </c>
+      <c r="G161">
         <v>50</v>
       </c>
-      <c r="E161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6290,16 +8562,22 @@
         <v>172</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162">
+        <v>632</v>
+      </c>
+      <c r="D162" t="s">
+        <v>500</v>
+      </c>
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="G162">
         <v>150</v>
       </c>
-      <c r="E162" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6307,16 +8585,22 @@
         <v>173</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163">
+        <v>501</v>
+      </c>
+      <c r="D163" t="s">
+        <v>502</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+      <c r="G163">
         <v>100</v>
       </c>
-      <c r="E163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6324,16 +8608,22 @@
         <v>174</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164">
+        <v>503</v>
+      </c>
+      <c r="D164" t="s">
+        <v>325</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+      <c r="G164">
         <v>100</v>
       </c>
-      <c r="E164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6341,16 +8631,22 @@
         <v>175</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165">
+        <v>341</v>
+      </c>
+      <c r="D165" t="s">
+        <v>302</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165">
         <v>100</v>
       </c>
-      <c r="E165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6358,16 +8654,22 @@
         <v>176</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166">
+        <v>444</v>
+      </c>
+      <c r="D166" t="s">
+        <v>504</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="G166">
         <v>50</v>
       </c>
-      <c r="E166" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6375,16 +8677,22 @@
         <v>177</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167">
+        <v>505</v>
+      </c>
+      <c r="D167" t="s">
+        <v>506</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167">
         <v>100</v>
       </c>
-      <c r="E167" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6392,16 +8700,22 @@
         <v>179</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168">
+        <v>507</v>
+      </c>
+      <c r="D168" t="s">
+        <v>356</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168">
         <v>100</v>
       </c>
-      <c r="E168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6409,16 +8723,22 @@
         <v>180</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169">
+        <v>508</v>
+      </c>
+      <c r="D169" t="s">
+        <v>509</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169">
         <v>200</v>
       </c>
-      <c r="E169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6426,16 +8746,22 @@
         <v>181</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170">
+        <v>510</v>
+      </c>
+      <c r="D170" t="s">
+        <v>511</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170">
         <v>100</v>
       </c>
-      <c r="E170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6443,16 +8769,22 @@
         <v>182</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171">
+        <v>512</v>
+      </c>
+      <c r="D171" t="s">
+        <v>491</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171">
         <v>50</v>
       </c>
-      <c r="E171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6460,16 +8792,22 @@
         <v>183</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172">
+        <v>513</v>
+      </c>
+      <c r="D172" t="s">
+        <v>514</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
+      <c r="G172">
         <v>200</v>
       </c>
-      <c r="E172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6477,16 +8815,28 @@
         <v>261</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173">
+        <v>515</v>
+      </c>
+      <c r="D173" t="s">
+        <v>516</v>
+      </c>
+      <c r="E173" t="s">
+        <v>689</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173">
         <v>100</v>
       </c>
-      <c r="E173" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6494,16 +8844,22 @@
         <v>185</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174">
+        <v>518</v>
+      </c>
+      <c r="D174" t="s">
+        <v>519</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174">
         <v>50</v>
       </c>
-      <c r="E174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6511,16 +8867,22 @@
         <v>186</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175">
+        <v>520</v>
+      </c>
+      <c r="D175" t="s">
+        <v>521</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="G175">
         <v>200</v>
       </c>
-      <c r="E175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6528,16 +8890,22 @@
         <v>187</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176">
+        <v>522</v>
+      </c>
+      <c r="D176" t="s">
+        <v>523</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176">
         <v>50</v>
       </c>
-      <c r="E176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6545,16 +8913,22 @@
         <v>188</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177">
+        <v>633</v>
+      </c>
+      <c r="D177" t="s">
+        <v>302</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+      <c r="G177">
         <v>300</v>
       </c>
-      <c r="E177" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6562,16 +8936,25 @@
         <v>189</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178">
+        <v>634</v>
+      </c>
+      <c r="D178" t="s">
+        <v>690</v>
+      </c>
+      <c r="E178" t="s">
+        <v>349</v>
+      </c>
+      <c r="F178">
+        <v>4</v>
+      </c>
+      <c r="G178">
         <v>100</v>
       </c>
-      <c r="E178" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -6579,16 +8962,22 @@
         <v>190</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179">
+        <v>437</v>
+      </c>
+      <c r="D179" t="s">
+        <v>308</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179">
         <v>100</v>
       </c>
-      <c r="E179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -6596,16 +8985,22 @@
         <v>191</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180">
+        <v>635</v>
+      </c>
+      <c r="D180" t="s">
+        <v>395</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
         <v>200</v>
       </c>
-      <c r="E180" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -6613,16 +9008,22 @@
         <v>192</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181">
+        <v>414</v>
+      </c>
+      <c r="D181" t="s">
+        <v>524</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="G181">
         <v>100</v>
       </c>
-      <c r="E181" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -6630,16 +9031,22 @@
         <v>193</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182">
+        <v>525</v>
+      </c>
+      <c r="D182" t="s">
+        <v>320</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182">
         <v>200</v>
       </c>
-      <c r="E182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -6647,16 +9054,22 @@
         <v>194</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183">
+        <v>526</v>
+      </c>
+      <c r="D183" t="s">
+        <v>194</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183">
         <v>50</v>
       </c>
-      <c r="E183" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -6664,16 +9077,22 @@
         <v>195</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184">
+        <v>332</v>
+      </c>
+      <c r="D184" t="s">
+        <v>527</v>
+      </c>
+      <c r="F184">
+        <v>4</v>
+      </c>
+      <c r="G184">
         <v>100</v>
       </c>
-      <c r="E184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -6681,16 +9100,28 @@
         <v>262</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185">
+        <v>430</v>
+      </c>
+      <c r="D185" t="s">
+        <v>694</v>
+      </c>
+      <c r="E185" t="s">
+        <v>693</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185">
         <v>200</v>
       </c>
-      <c r="E185" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="M185" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -6698,16 +9129,22 @@
         <v>196</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186">
+        <v>529</v>
+      </c>
+      <c r="D186" t="s">
+        <v>462</v>
+      </c>
+      <c r="F186">
+        <v>4</v>
+      </c>
+      <c r="G186">
         <v>50</v>
       </c>
-      <c r="E186" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -6715,16 +9152,22 @@
         <v>197</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187">
+        <v>530</v>
+      </c>
+      <c r="D187" t="s">
+        <v>325</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="G187">
         <v>100</v>
       </c>
-      <c r="E187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -6732,16 +9175,22 @@
         <v>198</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188">
+        <v>531</v>
+      </c>
+      <c r="D188" t="s">
+        <v>532</v>
+      </c>
+      <c r="F188">
+        <v>4</v>
+      </c>
+      <c r="G188">
         <v>200</v>
       </c>
-      <c r="E188" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -6749,16 +9198,22 @@
         <v>199</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189">
+        <v>636</v>
+      </c>
+      <c r="D189" t="s">
+        <v>533</v>
+      </c>
+      <c r="F189">
+        <v>4</v>
+      </c>
+      <c r="G189">
         <v>200</v>
       </c>
-      <c r="E189" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -6766,16 +9221,22 @@
         <v>200</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>200</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
+      </c>
+      <c r="G190">
         <v>50</v>
       </c>
-      <c r="E190" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -6783,16 +9244,22 @@
         <v>201</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191">
+        <v>637</v>
+      </c>
+      <c r="D191" t="s">
+        <v>653</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="G191">
         <v>70</v>
       </c>
-      <c r="E191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -6800,16 +9267,22 @@
         <v>202</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192">
+        <v>638</v>
+      </c>
+      <c r="D192" t="s">
+        <v>534</v>
+      </c>
+      <c r="F192">
+        <v>4</v>
+      </c>
+      <c r="G192">
         <v>200</v>
       </c>
-      <c r="E192" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -6817,16 +9290,22 @@
         <v>203</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193">
+        <v>535</v>
+      </c>
+      <c r="D193" t="s">
+        <v>536</v>
+      </c>
+      <c r="F193">
+        <v>4</v>
+      </c>
+      <c r="G193">
         <v>100</v>
       </c>
-      <c r="E193" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -6834,16 +9313,22 @@
         <v>204</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194">
+        <v>639</v>
+      </c>
+      <c r="D194" t="s">
+        <v>537</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="G194">
         <v>100</v>
       </c>
-      <c r="E194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -6851,16 +9336,25 @@
         <v>205</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195">
+        <v>538</v>
+      </c>
+      <c r="D195" t="s">
+        <v>571</v>
+      </c>
+      <c r="E195" t="s">
+        <v>691</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="G195">
         <v>100</v>
       </c>
-      <c r="E195" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -6868,16 +9362,25 @@
         <v>206</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196">
+        <v>539</v>
+      </c>
+      <c r="D196" t="s">
+        <v>695</v>
+      </c>
+      <c r="E196" t="s">
+        <v>324</v>
+      </c>
+      <c r="F196">
+        <v>4</v>
+      </c>
+      <c r="G196">
         <v>50</v>
       </c>
-      <c r="E196" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -6885,16 +9388,22 @@
         <v>207</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197">
+        <v>540</v>
+      </c>
+      <c r="D197" t="s">
+        <v>541</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197">
         <v>50</v>
       </c>
-      <c r="E197" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -6902,16 +9411,22 @@
         <v>208</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198">
+        <v>335</v>
+      </c>
+      <c r="D198" t="s">
+        <v>542</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="G198">
         <v>100</v>
       </c>
-      <c r="E198" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -6919,16 +9434,22 @@
         <v>209</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199">
+        <v>640</v>
+      </c>
+      <c r="D199" t="s">
+        <v>308</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199">
         <v>50</v>
       </c>
-      <c r="E199" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -6936,16 +9457,25 @@
         <v>210</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200">
+        <v>543</v>
+      </c>
+      <c r="D200" t="s">
+        <v>296</v>
+      </c>
+      <c r="E200" t="s">
+        <v>692</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200">
         <v>100</v>
       </c>
-      <c r="E200" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -6953,16 +9483,22 @@
         <v>211</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201">
+        <v>544</v>
+      </c>
+      <c r="D201" t="s">
+        <v>545</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="G201">
         <v>50</v>
       </c>
-      <c r="E201" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -6970,16 +9506,22 @@
         <v>212</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202">
+        <v>546</v>
+      </c>
+      <c r="D202" t="s">
+        <v>547</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202">
         <v>50</v>
       </c>
-      <c r="E202" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -6987,16 +9529,22 @@
         <v>213</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203">
+        <v>641</v>
+      </c>
+      <c r="D203" t="s">
+        <v>453</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203">
         <v>200</v>
       </c>
-      <c r="E203" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7004,16 +9552,22 @@
         <v>214</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204">
+        <v>548</v>
+      </c>
+      <c r="D204" t="s">
+        <v>549</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204">
         <v>100</v>
       </c>
-      <c r="E204" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7021,16 +9575,22 @@
         <v>215</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>215</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205">
         <v>10</v>
       </c>
-      <c r="E205" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -7038,16 +9598,22 @@
         <v>216</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>216</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206">
         <v>100</v>
       </c>
-      <c r="E206" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -7055,16 +9621,22 @@
         <v>217</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207">
+        <v>505</v>
+      </c>
+      <c r="D207" t="s">
+        <v>502</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="G207">
         <v>50</v>
       </c>
-      <c r="E207" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -7072,16 +9644,22 @@
         <v>218</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208">
+        <v>550</v>
+      </c>
+      <c r="D208" t="s">
+        <v>304</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208">
         <v>50</v>
       </c>
-      <c r="E208" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -7089,16 +9667,22 @@
         <v>219</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>219</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209">
         <v>100</v>
       </c>
-      <c r="E209" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -7106,16 +9690,22 @@
         <v>220</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>220</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210">
         <v>50</v>
       </c>
-      <c r="E210" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -7123,16 +9713,22 @@
         <v>221</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211">
+        <v>551</v>
+      </c>
+      <c r="D211" t="s">
+        <v>299</v>
+      </c>
+      <c r="F211">
+        <v>4</v>
+      </c>
+      <c r="G211">
         <v>200</v>
       </c>
-      <c r="E211" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -7140,16 +9736,22 @@
         <v>222</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212">
+        <v>552</v>
+      </c>
+      <c r="D212" t="s">
+        <v>308</v>
+      </c>
+      <c r="F212">
+        <v>4</v>
+      </c>
+      <c r="G212">
         <v>100</v>
       </c>
-      <c r="E212" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -7157,16 +9759,22 @@
         <v>223</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>223</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="G213">
         <v>200</v>
       </c>
-      <c r="E213" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -7174,16 +9782,22 @@
         <v>224</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214">
+        <v>326</v>
+      </c>
+      <c r="D214" t="s">
+        <v>299</v>
+      </c>
+      <c r="F214">
+        <v>4</v>
+      </c>
+      <c r="G214">
         <v>50</v>
       </c>
-      <c r="E214" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -7191,16 +9805,22 @@
         <v>225</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215">
+        <v>307</v>
+      </c>
+      <c r="D215" t="s">
+        <v>454</v>
+      </c>
+      <c r="F215">
+        <v>4</v>
+      </c>
+      <c r="G215">
         <v>200</v>
       </c>
-      <c r="E215" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -7208,16 +9828,22 @@
         <v>226</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216">
+        <v>553</v>
+      </c>
+      <c r="D216" t="s">
+        <v>299</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+      <c r="G216">
         <v>100</v>
       </c>
-      <c r="E216" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -7225,16 +9851,22 @@
         <v>227</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>227</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
+      </c>
+      <c r="G217">
         <v>100</v>
       </c>
-      <c r="E217" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -7242,16 +9874,22 @@
         <v>228</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218">
+        <v>437</v>
+      </c>
+      <c r="D218" t="s">
+        <v>299</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
+      </c>
+      <c r="G218">
         <v>50</v>
       </c>
-      <c r="E218" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -7259,16 +9897,22 @@
         <v>229</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219">
+        <v>554</v>
+      </c>
+      <c r="D219" t="s">
+        <v>555</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="G219">
         <v>100</v>
       </c>
-      <c r="E219" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -7276,16 +9920,22 @@
         <v>230</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>230</v>
+      </c>
+      <c r="F220">
+        <v>4</v>
+      </c>
+      <c r="G220">
         <v>50</v>
       </c>
-      <c r="E220" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -7293,16 +9943,22 @@
         <v>231</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221">
+        <v>430</v>
+      </c>
+      <c r="D221" t="s">
+        <v>556</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
+      </c>
+      <c r="G221">
         <v>100</v>
       </c>
-      <c r="E221" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -7310,16 +9966,22 @@
         <v>232</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222">
+        <v>337</v>
+      </c>
+      <c r="D222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222">
+        <v>4</v>
+      </c>
+      <c r="G222">
         <v>100</v>
       </c>
-      <c r="E222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -7327,16 +9989,25 @@
         <v>233</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223">
+        <v>391</v>
+      </c>
+      <c r="D223" t="s">
+        <v>696</v>
+      </c>
+      <c r="E223" t="s">
+        <v>676</v>
+      </c>
+      <c r="F223">
+        <v>4</v>
+      </c>
+      <c r="G223">
         <v>50</v>
       </c>
-      <c r="E223" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -7344,16 +10015,22 @@
         <v>234</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>234</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
+      </c>
+      <c r="G224">
         <v>200</v>
       </c>
-      <c r="E224" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -7361,16 +10038,25 @@
         <v>235</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225">
+        <v>697</v>
+      </c>
+      <c r="D225" t="s">
+        <v>698</v>
+      </c>
+      <c r="E225" t="s">
+        <v>324</v>
+      </c>
+      <c r="F225">
+        <v>4</v>
+      </c>
+      <c r="G225">
         <v>50</v>
       </c>
-      <c r="E225" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -7378,16 +10064,22 @@
         <v>236</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226">
+        <v>642</v>
+      </c>
+      <c r="D226" t="s">
+        <v>557</v>
+      </c>
+      <c r="F226">
+        <v>4</v>
+      </c>
+      <c r="G226">
         <v>200</v>
       </c>
-      <c r="E226" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -7395,16 +10087,22 @@
         <v>237</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227">
+        <v>383</v>
+      </c>
+      <c r="D227" t="s">
+        <v>325</v>
+      </c>
+      <c r="F227">
+        <v>4</v>
+      </c>
+      <c r="G227">
         <v>50</v>
       </c>
-      <c r="E227" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -7412,16 +10110,22 @@
         <v>238</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228">
+        <v>558</v>
+      </c>
+      <c r="D228" t="s">
+        <v>393</v>
+      </c>
+      <c r="F228">
+        <v>4</v>
+      </c>
+      <c r="G228">
         <v>100</v>
       </c>
-      <c r="E228" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -7429,16 +10133,22 @@
         <v>239</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>239</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
+      </c>
+      <c r="G229">
         <v>20</v>
       </c>
-      <c r="E229" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -7446,16 +10156,22 @@
         <v>240</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230">
+        <v>643</v>
+      </c>
+      <c r="D230" t="s">
+        <v>302</v>
+      </c>
+      <c r="F230">
+        <v>4</v>
+      </c>
+      <c r="G230">
         <v>100</v>
       </c>
-      <c r="E230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -7463,16 +10179,22 @@
         <v>241</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231">
+        <v>644</v>
+      </c>
+      <c r="D231" t="s">
+        <v>559</v>
+      </c>
+      <c r="F231">
+        <v>4</v>
+      </c>
+      <c r="G231">
         <v>100</v>
       </c>
-      <c r="E231" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -7480,16 +10202,22 @@
         <v>242</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232">
+        <v>560</v>
+      </c>
+      <c r="D232" t="s">
+        <v>372</v>
+      </c>
+      <c r="F232">
+        <v>4</v>
+      </c>
+      <c r="G232">
         <v>100</v>
       </c>
-      <c r="E232" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -7497,16 +10225,22 @@
         <v>243</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233">
+        <v>645</v>
+      </c>
+      <c r="D233" t="s">
+        <v>699</v>
+      </c>
+      <c r="F233">
+        <v>4</v>
+      </c>
+      <c r="G233">
         <v>50</v>
       </c>
-      <c r="E233" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -7514,16 +10248,22 @@
         <v>244</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234">
+        <v>646</v>
+      </c>
+      <c r="D234" t="s">
+        <v>487</v>
+      </c>
+      <c r="F234">
+        <v>4</v>
+      </c>
+      <c r="G234">
         <v>50</v>
       </c>
-      <c r="E234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -7531,16 +10271,22 @@
         <v>245</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235">
+        <v>561</v>
+      </c>
+      <c r="D235" t="s">
+        <v>562</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
+      </c>
+      <c r="G235">
         <v>100</v>
       </c>
-      <c r="E235" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -7548,16 +10294,22 @@
         <v>246</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236">
+        <v>298</v>
+      </c>
+      <c r="D236" t="s">
+        <v>563</v>
+      </c>
+      <c r="F236">
+        <v>4</v>
+      </c>
+      <c r="G236">
         <v>100</v>
       </c>
-      <c r="E236" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -7565,16 +10317,22 @@
         <v>247</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>247</v>
+      </c>
+      <c r="F237">
+        <v>4</v>
+      </c>
+      <c r="G237">
         <v>20</v>
       </c>
-      <c r="E237" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -7582,16 +10340,22 @@
         <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238">
+        <v>564</v>
+      </c>
+      <c r="D238" t="s">
+        <v>446</v>
+      </c>
+      <c r="F238">
+        <v>4</v>
+      </c>
+      <c r="G238">
         <v>50</v>
       </c>
-      <c r="E238" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -7599,16 +10363,22 @@
         <v>249</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239">
+        <v>565</v>
+      </c>
+      <c r="D239" t="s">
+        <v>566</v>
+      </c>
+      <c r="F239">
+        <v>4</v>
+      </c>
+      <c r="G239">
         <v>100</v>
       </c>
-      <c r="E239" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -7616,16 +10386,22 @@
         <v>250</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240">
+        <v>428</v>
+      </c>
+      <c r="D240" t="s">
+        <v>567</v>
+      </c>
+      <c r="F240">
+        <v>4</v>
+      </c>
+      <c r="G240">
         <v>50</v>
       </c>
-      <c r="E240" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -7633,16 +10409,22 @@
         <v>251</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
-      </c>
-      <c r="D241">
+        <v>568</v>
+      </c>
+      <c r="D241" t="s">
+        <v>557</v>
+      </c>
+      <c r="F241">
+        <v>4</v>
+      </c>
+      <c r="G241">
         <v>100</v>
       </c>
-      <c r="E241" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -7650,16 +10432,22 @@
         <v>252</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242">
+        <v>569</v>
+      </c>
+      <c r="D242" t="s">
+        <v>566</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+      <c r="G242">
         <v>200</v>
       </c>
-      <c r="E242" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -7667,16 +10455,22 @@
         <v>253</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
-      </c>
-      <c r="D243">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>253</v>
+      </c>
+      <c r="F243">
+        <v>4</v>
+      </c>
+      <c r="G243">
         <v>100</v>
       </c>
-      <c r="E243" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -7684,16 +10478,22 @@
         <v>254</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244">
+        <v>647</v>
+      </c>
+      <c r="D244" t="s">
+        <v>570</v>
+      </c>
+      <c r="F244">
+        <v>4</v>
+      </c>
+      <c r="G244">
         <v>200</v>
       </c>
-      <c r="E244" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -7701,16 +10501,22 @@
         <v>255</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
-      </c>
-      <c r="D245">
+        <v>648</v>
+      </c>
+      <c r="D245" t="s">
+        <v>454</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245">
         <v>200</v>
       </c>
-      <c r="E245" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -7718,16 +10524,22 @@
         <v>256</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
-      </c>
-      <c r="D246">
+        <v>649</v>
+      </c>
+      <c r="D246" t="s">
+        <v>571</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+      <c r="G246">
         <v>100</v>
       </c>
-      <c r="E246" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -7735,16 +10547,22 @@
         <v>257</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
-      </c>
-      <c r="D247">
+        <v>572</v>
+      </c>
+      <c r="D247" t="s">
+        <v>346</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="G247">
         <v>400</v>
       </c>
-      <c r="E247" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -7752,16 +10570,22 @@
         <v>263</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
-      </c>
-      <c r="D248">
+        <v>650</v>
+      </c>
+      <c r="D248" t="s">
+        <v>654</v>
+      </c>
+      <c r="F248">
+        <v>4</v>
+      </c>
+      <c r="G248">
         <v>100</v>
       </c>
-      <c r="E248" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -7769,16 +10593,22 @@
         <v>264</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
-      </c>
-      <c r="D249">
+        <v>573</v>
+      </c>
+      <c r="D249" t="s">
+        <v>454</v>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+      <c r="G249">
         <v>3500</v>
       </c>
-      <c r="E249" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -7786,16 +10616,22 @@
         <v>265</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
-      </c>
-      <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="D250" t="s">
+        <v>302</v>
+      </c>
+      <c r="F250">
+        <v>7</v>
+      </c>
+      <c r="G250">
+        <v>2</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -7803,16 +10639,22 @@
         <v>287</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251">
+        <v>575</v>
+      </c>
+      <c r="D251" t="s">
+        <v>576</v>
+      </c>
+      <c r="F251">
+        <v>3</v>
+      </c>
+      <c r="G251">
         <v>5</v>
       </c>
-      <c r="E251" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -7820,16 +10662,22 @@
         <v>282</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
-      </c>
-      <c r="D252">
+        <v>577</v>
+      </c>
+      <c r="D252" t="s">
+        <v>325</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252">
         <v>100</v>
       </c>
-      <c r="E252" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -7837,16 +10685,22 @@
         <v>283</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
-      </c>
-      <c r="D253">
+        <v>314</v>
+      </c>
+      <c r="D253" t="s">
+        <v>420</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="G253">
         <v>50</v>
       </c>
-      <c r="E253" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -7854,16 +10708,22 @@
         <v>284</v>
       </c>
       <c r="C254" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254">
+        <v>578</v>
+      </c>
+      <c r="D254" t="s">
+        <v>579</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254">
         <v>200</v>
       </c>
-      <c r="E254" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -7871,16 +10731,22 @@
         <v>285</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255">
+        <v>475</v>
+      </c>
+      <c r="D255" t="s">
+        <v>555</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255">
         <v>15</v>
       </c>
-      <c r="E255" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -7888,16 +10754,22 @@
         <v>286</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
-      </c>
-      <c r="D256">
+        <v>580</v>
+      </c>
+      <c r="D256" t="s">
+        <v>581</v>
+      </c>
+      <c r="F256">
+        <v>4</v>
+      </c>
+      <c r="G256">
         <v>100</v>
       </c>
-      <c r="E256" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -7905,16 +10777,22 @@
         <v>288</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257">
+        <v>582</v>
+      </c>
+      <c r="D257" t="s">
+        <v>583</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+      <c r="G257">
         <v>100</v>
       </c>
-      <c r="E257" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -7922,16 +10800,22 @@
         <v>289</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
-      </c>
-      <c r="D258">
+        <v>530</v>
+      </c>
+      <c r="D258" t="s">
+        <v>453</v>
+      </c>
+      <c r="F258">
+        <v>4</v>
+      </c>
+      <c r="G258">
         <v>200</v>
       </c>
-      <c r="E258" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -7939,16 +10823,22 @@
         <v>290</v>
       </c>
       <c r="C259" t="s">
-        <v>5</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="D259" t="s">
+        <v>584</v>
+      </c>
+      <c r="F259">
+        <v>7</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -7956,37 +10846,25 @@
         <v>291</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
-      </c>
-      <c r="D260">
+        <v>651</v>
+      </c>
+      <c r="D260" t="s">
+        <v>584</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+      <c r="G260">
         <v>500</v>
       </c>
-      <c r="E260" t="s">
-        <v>11</v>
+      <c r="H260">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E260" xr:uid="{0169D5C1-83A1-46A5-B1FB-A3526D94D3BB}"/>
+  <autoFilter ref="A1:H260" xr:uid="{0169D5C1-83A1-46A5-B1FB-A3526D94D3BB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD67D97F-903C-46C1-B73E-CA2AAEF0829C}">
-          <x14:formula1>
-            <xm:f>Sabitler!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E253</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A32AE450-71FE-45BF-BAE6-0F8489ECA230}">
-          <x14:formula1>
-            <xm:f>Sabitler!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C247</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8233,8 +11111,8 @@
   <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
